--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.4460523080713</v>
+        <v>16.75560066666667</v>
       </c>
       <c r="H2">
-        <v>3.4460523080713</v>
+        <v>50.266802</v>
       </c>
       <c r="I2">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950116</v>
       </c>
       <c r="J2">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950115</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.4376248268326</v>
+        <v>29.546424</v>
       </c>
       <c r="N2">
-        <v>11.4376248268326</v>
+        <v>88.63927200000001</v>
       </c>
       <c r="O2">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610835</v>
       </c>
       <c r="P2">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610834</v>
       </c>
       <c r="Q2">
-        <v>39.41465343336009</v>
+        <v>495.068081672016</v>
       </c>
       <c r="R2">
-        <v>39.41465343336009</v>
+        <v>4455.612735048144</v>
       </c>
       <c r="S2">
-        <v>0.6179772445058347</v>
+        <v>0.8188111636178175</v>
       </c>
       <c r="T2">
-        <v>0.6179772445058347</v>
+        <v>0.8188111636178174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.4460523080713</v>
+        <v>16.75560066666667</v>
       </c>
       <c r="H3">
-        <v>3.4460523080713</v>
+        <v>50.266802</v>
       </c>
       <c r="I3">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950116</v>
       </c>
       <c r="J3">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950115</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.48983665839063</v>
+        <v>1.672785333333334</v>
       </c>
       <c r="N3">
-        <v>1.48983665839063</v>
+        <v>5.018356000000001</v>
       </c>
       <c r="O3">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="P3">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="Q3">
-        <v>5.134055055296263</v>
+        <v>28.02852304639023</v>
       </c>
       <c r="R3">
-        <v>5.134055055296263</v>
+        <v>252.256707417512</v>
       </c>
       <c r="S3">
-        <v>0.08049618402905646</v>
+        <v>0.04635739693133373</v>
       </c>
       <c r="T3">
-        <v>0.08049618402905646</v>
+        <v>0.04635739693133373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.4460523080713</v>
+        <v>16.75560066666667</v>
       </c>
       <c r="H4">
-        <v>3.4460523080713</v>
+        <v>50.266802</v>
       </c>
       <c r="I4">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950116</v>
       </c>
       <c r="J4">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950115</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.15370240762441</v>
+        <v>1.489401</v>
       </c>
       <c r="N4">
-        <v>1.15370240762441</v>
+        <v>4.468203</v>
       </c>
       <c r="O4">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="P4">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="Q4">
-        <v>3.975718844621514</v>
+        <v>24.955808388534</v>
       </c>
       <c r="R4">
-        <v>3.975718844621514</v>
+        <v>224.602275496806</v>
       </c>
       <c r="S4">
-        <v>0.06233478065925681</v>
+        <v>0.04127532204586047</v>
       </c>
       <c r="T4">
-        <v>0.06233478065925681</v>
+        <v>0.04127532204586046</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0234516866129257</v>
+        <v>0.07688299999999999</v>
       </c>
       <c r="H5">
-        <v>0.0234516866129257</v>
+        <v>0.230649</v>
       </c>
       <c r="I5">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="J5">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4376248268326</v>
+        <v>29.546424</v>
       </c>
       <c r="N5">
-        <v>11.4376248268326</v>
+        <v>88.63927200000001</v>
       </c>
       <c r="O5">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610835</v>
       </c>
       <c r="P5">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610834</v>
       </c>
       <c r="Q5">
-        <v>0.2682315930350967</v>
+        <v>2.271617716392</v>
       </c>
       <c r="R5">
-        <v>0.2682315930350967</v>
+        <v>20.444559447528</v>
       </c>
       <c r="S5">
-        <v>0.004205568394340907</v>
+        <v>0.003757111424699068</v>
       </c>
       <c r="T5">
-        <v>0.004205568394340907</v>
+        <v>0.003757111424699068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0234516866129257</v>
+        <v>0.07688299999999999</v>
       </c>
       <c r="H6">
-        <v>0.0234516866129257</v>
+        <v>0.230649</v>
       </c>
       <c r="I6">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="J6">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.48983665839063</v>
+        <v>1.672785333333334</v>
       </c>
       <c r="N6">
-        <v>1.48983665839063</v>
+        <v>5.018356000000001</v>
       </c>
       <c r="O6">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="P6">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="Q6">
-        <v>0.0349391824170255</v>
+        <v>0.1286087547826667</v>
       </c>
       <c r="R6">
-        <v>0.0349391824170255</v>
+        <v>1.157478793044</v>
       </c>
       <c r="S6">
-        <v>0.0005478069142956167</v>
+        <v>0.0002127107120284914</v>
       </c>
       <c r="T6">
-        <v>0.0005478069142956167</v>
+        <v>0.0002127107120284914</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0234516866129257</v>
+        <v>0.07688299999999999</v>
       </c>
       <c r="H7">
-        <v>0.0234516866129257</v>
+        <v>0.230649</v>
       </c>
       <c r="I7">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="J7">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.15370240762441</v>
+        <v>1.489401</v>
       </c>
       <c r="N7">
-        <v>1.15370240762441</v>
+        <v>4.468203</v>
       </c>
       <c r="O7">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="P7">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="Q7">
-        <v>0.02705626730818552</v>
+        <v>0.114509617083</v>
       </c>
       <c r="R7">
-        <v>0.02705626730818552</v>
+        <v>1.030586553747</v>
       </c>
       <c r="S7">
-        <v>0.0004242117096372602</v>
+        <v>0.0001893916337577169</v>
       </c>
       <c r="T7">
-        <v>0.0004242117096372602</v>
+        <v>0.0001893916337577169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.05995857738946</v>
+        <v>1.652500333333333</v>
       </c>
       <c r="H8">
-        <v>1.05995857738946</v>
+        <v>4.957501</v>
       </c>
       <c r="I8">
-        <v>0.2340142037875783</v>
+        <v>0.0893969036345032</v>
       </c>
       <c r="J8">
-        <v>0.2340142037875783</v>
+        <v>0.08939690363450319</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.4376248268326</v>
+        <v>29.546424</v>
       </c>
       <c r="N8">
-        <v>11.4376248268326</v>
+        <v>88.63927200000001</v>
       </c>
       <c r="O8">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610835</v>
       </c>
       <c r="P8">
-        <v>0.8122641646577388</v>
+        <v>0.9033225104610834</v>
       </c>
       <c r="Q8">
-        <v>12.12340854016385</v>
+        <v>48.825475508808</v>
       </c>
       <c r="R8">
-        <v>12.12340854016385</v>
+        <v>439.429279579272</v>
       </c>
       <c r="S8">
-        <v>0.1900813517575631</v>
+        <v>0.08075423541856699</v>
       </c>
       <c r="T8">
-        <v>0.1900813517575631</v>
+        <v>0.08075423541856697</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.05995857738946</v>
+        <v>1.652500333333333</v>
       </c>
       <c r="H9">
-        <v>1.05995857738946</v>
+        <v>4.957501</v>
       </c>
       <c r="I9">
-        <v>0.2340142037875783</v>
+        <v>0.0893969036345032</v>
       </c>
       <c r="J9">
-        <v>0.2340142037875783</v>
+        <v>0.08939690363450319</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.48983665839063</v>
+        <v>1.672785333333334</v>
       </c>
       <c r="N9">
-        <v>1.48983665839063</v>
+        <v>5.018356000000001</v>
       </c>
       <c r="O9">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="P9">
-        <v>0.1058035166501666</v>
+        <v>0.05114204841740398</v>
       </c>
       <c r="Q9">
-        <v>1.579165144970399</v>
+        <v>2.764278320928445</v>
       </c>
       <c r="R9">
-        <v>1.579165144970399</v>
+        <v>24.878504888356</v>
       </c>
       <c r="S9">
-        <v>0.02475952570681452</v>
+        <v>0.00457194077404176</v>
       </c>
       <c r="T9">
-        <v>0.02475952570681452</v>
+        <v>0.00457194077404176</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.05995857738946</v>
+        <v>1.652500333333333</v>
       </c>
       <c r="H10">
-        <v>1.05995857738946</v>
+        <v>4.957501</v>
       </c>
       <c r="I10">
-        <v>0.2340142037875783</v>
+        <v>0.0893969036345032</v>
       </c>
       <c r="J10">
-        <v>0.2340142037875783</v>
+        <v>0.08939690363450319</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.15370240762441</v>
+        <v>1.489401</v>
       </c>
       <c r="N10">
-        <v>1.15370240762441</v>
+        <v>4.468203</v>
       </c>
       <c r="O10">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="P10">
-        <v>0.08193231869209473</v>
+        <v>0.04553544112151264</v>
       </c>
       <c r="Q10">
-        <v>1.222876762716365</v>
+        <v>2.461235648967</v>
       </c>
       <c r="R10">
-        <v>1.222876762716365</v>
+        <v>22.151120840703</v>
       </c>
       <c r="S10">
-        <v>0.01917332632320067</v>
+        <v>0.00407072744189446</v>
       </c>
       <c r="T10">
-        <v>0.01917332632320067</v>
+        <v>0.004070727441894459</v>
       </c>
     </row>
   </sheetData>
